--- a/Research/Ingredients.xlsx
+++ b/Research/Ingredients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/Github/Skincare_Cosmetic_Recommendation/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Research/Ingredients.xlsx
+++ b/Research/Ingredients.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/Github/Skincare_Cosmetic_Recommendation/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="480" windowWidth="17820" windowHeight="19160" tabRatio="500"/>
+    <workbookView xWindow="8060" yWindow="460" windowWidth="25020" windowHeight="19160" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
-    <sheet name="시트2" sheetId="2" r:id="rId2"/>
+    <sheet name="Retinoid, Vitamin C" sheetId="1" r:id="rId1"/>
+    <sheet name="Direct Acids" sheetId="3" r:id="rId2"/>
+    <sheet name="Antioxidants, Hidrates and Oil" sheetId="4" r:id="rId3"/>
+    <sheet name="Molecules" sheetId="5" r:id="rId4"/>
+    <sheet name="참고" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="203">
   <si>
     <t>성분명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,9 +230,624 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이 제품은 10% 순수 MAP (매우 높은 용해도의)를 포함한 가벼운 크림 포뮬라 입니다. 
+    <t xml:space="preserve">* 참고 
+시중의 몇 몇 브랜드들은 15%정도의 MAP을 함유한 [파우더]형 제품을 선보입니다. 
+용해도 10% MAP를 포함한 에멀전 제형 제품과 용해도 15% MAP를 포함한 파우더 제형 제품을 비교하였을 때, 
+직접적으로 피부에 작용 가능한 MAP를 더 많이 함유하고 있는 것은 에멀전 제형입니다. 
+파우더가 아닌 제형에 고농도의 MAP를 용해시키는 것은 매우 어려운 일입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 디 오디너리 비타민C 제품 </t>
+  </si>
+  <si>
+    <t>Ascorbyl Glucoside Solution 12% ｜ 스포이드 ｜ 가벼운 세럼 ｜ 효능 높음 ｜ 자극 약함 ｜ 흡수 1-5초 </t>
+  </si>
+  <si>
+    <t>Magnesium Ascorbyl Phosphate Solution 10% ｜튜브｜가벼운 크림 ｜ 효능 보통 ｜자극 아주 약함 ｜ 흡수 5-10초 </t>
+  </si>
+  <si>
+    <t>Ascorbyl Tetraisopalmitate Solution 20% in Vitamin F ｜ 스포이드 ｜ 가벼운 오일｜ 효능 높음｜ 자극 아주 약함 ｜ 흡수 1-5초</t>
+  </si>
+  <si>
+    <t>23% pure L-Ascorbic Acid, dehydrated spheres of Hyaluronic Acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">magnesium ascorbyl phosphate, 이 제품은 10% 순수 MAP (매우 높은 용해도의)를 포함한 가벼운 크림 포뮬라 입니다. 
 순수 비타민 C의 일반적인 기능 외에도 MAP는 특히 피부 브라이트닝 효과를 주는 것으로 알려져 있는데, 
 이는 다른 어떤 비타민 C 파생물질보다 더욱 효과적입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedtime, A very strong tingling but non-irritating sensation, The powder exposure to the skin disallows the formula to feel like a serum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitamin c suspension 23% + ha spheres 2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitamin C - L-Ascorbic Acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비타민 C는 효과적인 항산화 물질로, 그 순수한 형태인 아스코르브산은 피부 노화의 여러 증상을 개선하며 
+국소부위에 발랐을 때는 미백 효과가 있는 것으로 알려져 있습니다. 
+이 워터 프리, 실리콘 프리 제품은 23% 순수 아스코르브산을 제공하며, 완전히 안정화된 워터-프리 포뮬라입니다. 
+히알루론산 입자가 함유되어 있어 피부 표면을 매끄럽게 하며 비타민 C의 효과를 높여줍니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다른 제품들은 avoid the "powdery" feel(실리콘 사용), 시중의 다른 워터-프리 비타민 C 서스펜션 제품은 파우더 같은 느낌을 피하고자 실리콘 베이스를 사용합니다. 
+그러한 포뮬라는 비타민 C를 안정화하기는 비타민 C를 가둬두는 실리콘 때문에 다소 무겁게 느껴질 수 있으며 
+비타민 C가 피부에 효과적으로 흡수되는 것을 막을 수 있습니다. 
+데시엠 비타민 C 제품들의 포뮬라는 실리콘을 사용하지 않으며 파우더 형태의 성분을 피부에 직접 제공하여 국소 흡수를 최대화시킵니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>very light silicones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short-lived gritty feeling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitamin c suspension 30% in silicone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>offer slightly less efficient exposure to Vitamin C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% l-ascorbic acid powder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mix a small amount with other treatments in the palm of your hand and apply to face in the AM or the PM. A tingling sensation can be expected after application. Do not mix with formulations containing Niacinamide or EUK 134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascorbic acid 8% + alpha arbutin 2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "L" designation is specific to the vitamin’s shape, indicating the natural form of vitamin C.</t>
+  </si>
+  <si>
+    <t>#Ascorbic Acid &amp; L-Ascorbic Acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethylated ascorbic acid 15% solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottomline. When choosing your vitamin C serum, choose the one with ethyl ascorbic acid. Look for colorless or white formulation in an airless bottle. Freshness and proper storage are important. The container should allow you to spot advanced stages of oxidation of the active ingredient by the emergence of a yellowish to brownish tint. There will still be degradation when exposed to light and air, and you don’t want to end up with a useless product.</t>
+  </si>
+  <si>
+    <t>#Ethyl &amp; L-Ascorbic Acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitamin C - Ethyl Ascorbic Acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct Acids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>azelaic acid suspension 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>very high 10% concentration of high-purity Azelaic Acid in a lightweight cream-gel system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azelaic Acid is produced naturally by yeast that lives on normal skin, t brightens the skin tone while visibly improving the evenness of skin texture and reducing the look of blemishes, acne, antioxidant, 좁쌀여드름 모낭염</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azelaic Acid can be used on just about any skin type, including sensitive skin, as it has the ability to reduce inflammation. Anyone with rosacea, especially those with acne rosacea, will find it makes an excellent treatment for calming and soothing their inflamed skin.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This pH of this formula is approximately 3.8. Lactic Acid has a pKa of 3.8 and pKa is the most important aspect to consider in formulating with acids. pKa implies acid availability. When pKa is close to pH, there is an ideal balance between salt and acidity, maximizing effectiveness of the acid and reducing irritation. Higher pH numbers in such a case would increase salt which counter-intuitively would make the formula even more irritating than if the formula was more acidic.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitamin C - Ascorbic Acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ascorbic Acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactic Acid should not be used on sensitive, peeling or compromised skin. Please refer to additional sun protection note and other warnings in provided Directions, 참고: 락트산이 빠른 효과를 부를 수 있지만, 데시엠은 이 포뮬라처럼 직접적인 포뮬라 보다는 간접적인 각질 제거 방법을 더 추천합니다. 
+ 직접적인 포뮬라는 산의 이용으로 피부 염증과 예민성을 초래할 가능성이 높습니다. 
+ 간접적인 각질 제거 방법을 제공하는 데시엠의 제품으로는 NIOD의 Non-Acid Acid Precursor (상품코드: 105533)를 참조 부탁드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactic Acid is an alpha hydroxy acid that exfoliates the skin(각질 제거 세럼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둡고 불균형한 피부톤과 피부결을 개선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lactic acid 10% + ha, lactic acid 5% + ha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aha 30% + bha 2% peeling solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>with 30% alpha hydroxy acids (glycolic/lactic/tartaric/citric), 2% beta hydroxy acid (salicylic acid), hyaluronic acid crosspolymer, vitamin b5, black carrot and tasmanian pepperberry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Professional Use Only</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha hydroxy acids (AHA) exfoliate the skin's topmost surface for a brighter and more even appearance. Beta hydroxy acids (BHA) also exfoliate the skin with an extended function to help clear pore congestion. This combined 29% AHA/BHA solution offers deeper exfoliation to help fight visible blemishes and for improved skin radiance. The formula also improves the appearance of skin texture and reduces the look of fine lines with continued use. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This formula contains a very high concentration of free acids. We recommend use only if you are an experienced user of acid exfoliation and your skin is not sensitive, This formula should not be used on sensitive, peeling or compromised skin. Please refer to additional sun protection note and other warnings in provided Directions. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The pH of this formula is approximately 3.6. Glycolic Acid, the primary AHA used in the formula, has a pKa of 3.6 and pKa is the most important aspect to consider in formulating with acids. pKa implies acid availability. When pKa is close to pH, there is an ideal balance between salt and acidity, maximizing effectiveness of the acid and reducing irritation. Higher pH numbers in such a case would increase salt which counter-intuitively would make the formula even more irritating than if the formula was more acidic. </t>
+  </si>
+  <si>
+    <t>#AHA &amp; BHA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glycolic acid 7% toning solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycolic Acid is an alpha hydroxy acid that exfoliates the skin. This 7% toning solution offers mild exfoliation for improved skin radiance and visible clarity. The formula also improves the appearance of skin texture with continued use. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glycolic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This pH of this formula is approximately 3.6. Glycolic Acid has a pKa of 3.6 and pKa is the most important aspect to consider in formulating with acids. pKa implies acid availability. When pKa is close to pH, there is an ideal balance between salt and acidity, maximizing effectiveness of the acid and reducing irritation. Higher pH numbers in such a case would increase salt which counter-intuitively would make the formula even more irritating than if the formula was more acidic.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 각질제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각질제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salicylic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salicylic acid 2% solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salicylic Acid is a beta hydroxy acid that exfoliates the skin. This 2% treatment solution helps exfoliate the inside walls of pores to fight the appearance of blemishes and for better visible skin clarity with continued use. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This product is not medicine. If you are fighting extensive or persistent acne, please consult a physician. Effective medicine exists to fight acne successfully, including retinoic acid and benzoyl peroxide. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandelic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandelic acid 10% + ha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superficial dermal peeling that is gentler than other alpha hydroxy acids. The molecular weight of mandelic acid is 152.1 daltons which is larger than other alpha hydroxy acids (glycolic acid is 76.0 daltons, for example). This larger size allows mandelic acid to penetrate the skin more slowly which in turn makes it very gentle and suitable for all skin types including the most sensitive skin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You don't need a concentration of more than 10%, because then you would simply be achieving an indirect peeling strength that is more easily offered through lower percentages of glycolic acid.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply once per day, ideally in the PM. Can be diluted with other treatments to reduce strength until skin develops tolerance. Avoid contact with eyes. If irritation persists, discontinue use and consult a physician. Use only as directed. Contact of the product with the skin must be of limited frequency or duration.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunburn Alert: This product contains an alpha hydroxy acid (AHA) that may increase your skin's sensitivity to the sun and particularly the possibility of sunburn. Use a sunscreen, wear protective clothing, and limit sun exposure while using this product and for a week afterwards.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antioxidants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha lipoic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha lipoic acid 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha Lipoic Acid is a highly potent antioxidant and can restore a renewed skin appearance, improving visible skin texture and tone when applied topically. This formulation uses an exceptionally high 5% concentration of high-purity Alpha Lipoic Acid. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3 drops over the entire face a maximum of 2-3 times per weeks. This treatment is highly concentrated and daily use is not recommended. Do not use on irritated or sensitive skin. Can be diluted with most oils per application to reduce strength.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resveratrol 3% + ferulic acid 3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferulic acid, resveratrol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water can impair the stability of any antioxidant. This formula does not contain any water, silicones, oils or alcohol.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply alone or after water-based serums, before oils or heavier creams. Alternatively, mix with other treatments to enhance their antioxidant capacity significantly. This product can be mixed with The Ordinary Vitamin C Suspension 23% + HA Spheres 2% or Vitamin C Suspension 30% in Silicone at each application to form an outstanding antioxidant network of Vitamin C, Ferulic Acid and Resveratrol. Do not refrigerate.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>euk 134 0.1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUK 134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 사용하기 좋은, 안되는 제품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply alone or after water-based serums, before oils or heavier creams. Alternatively, mix with other treatments to enhance their antioxidant capacity significantly. Do not use with highly acidic formulations such as suspensions of ascorbic acid.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl ascorbic acid is what maybe considered a next generation Vitamin C derivative. It is a highly stable, non-irritating, patented derivative. Ethyl ascorbic acid is the most effective among the three in boosting collagen synthesis and lightening skin, with over 80% metabolized to pure L-ascorbic acid.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrators and Oils</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This formula combines very high concentrations of two of the most powerful and important antioxidants in skincare: Resveratrol and Ferulic Acid. Resveratrol is a natural phenol found in several plants and our pure source is 100% derived from Japanese Knotweed. Ferulic Acid is a high-potency phytochemical antioxidant found naturally in walls of plant cells. 
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Skincare formulations generally incorporate Resveratrol at 1% or less and Ferulic Acid at 0.5% or less. This formula contains each at 3%, an exceptionally high concentration. 
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Alpha Lipoic Acid is highly sensitive to sunlight. Please do not expose to direct sunlight. Application to face is recommended at nighttime only. 
+2. Alpha Lipoic Acid is less stable in formulations that contain water and use of formulations of ALA containing water is highly discouraged. This formulation is water-free and may feel slightly "oily" for a few seconds after application. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. This formulation contains an extremely high concentration of ALA. Daily use is not recommended since such a high frequency of use can cause skin sensitivity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUK 134 is a mimetic of superoxide dismutase and catalse, forming an exceptionally rare self-regenerating molecule that scavenges superoxide free radicals, eliminates hydrogen peroxide and converts reactive oxygen species into water and oxygen. While it has been around for many years, very few products on the market do use this truly superb antioxidant which can regenerate itself to offer round-the-clock antioxidant support. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The only issue with EUK 134 is that it must not be used immediately with strong acids such as suspensions of Ascorbic Acid. Strong acids will completely destroy EUK 134 which is based on manganese. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The low price of this formula does not reflect EUK 134's extremely high potency. EUK 134 is by far one of the strongest antioxidants available. While EUK 134 itself is very costly, the suggested concentration in any formula is below 0.05% and most formulas do not use this maximum suggestion. Our formula uses EUK 134 at an extremely high 0.1% concentration and we do not believe any product on the market today uses a higher concentration than this amount. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Ordinary's antioxidant offering includes Resveratrol 3% + Ferulic Acid 3%. If you wish to take advantage of both formulas, either use them at different times or apply each in a separate step since acids and EUK 134 should not be mixed together. EUK 134 can also be mixed with most products such as Natural Moisturizing Factors + HA for a strong antioxidant boost. This formula does not contain any water, silicones, oils or alcohol. Water can impair the stability of any antioxidant.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% cold-pressed virgin marula oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> marula oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Referred to as a "luxury" oil by some, this antioxidant-rich oil is obtained from the kernels of the fruits of Marula tree. It's mostly composed of oleic acid and linoleic acid but also contains procyanidin, catechins and flavanoids. Marula oil offers antioxidants, hydrates the skin and is claimed to help restore a radiant tone. This formula contains only cold-pressed virgin African Marula oil that is 100% unrefined.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This formulation uses 100% pure Moroccan Argan Seed Oil extracted through a cold pressing that preserves the integrity of the oil's fatty acids, vitamins, phenols (including caffeic acid) and carotenes. Argan oil's main fatty acid content is made up of oleic acid and linoleic acid. The oil supports healthy skin and reduces the appearance of flaking. It also adds soft sheen and strength to hair. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% organic cold-pressed moroccan argan oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moroccan argan oil</t>
+  </si>
+  <si>
+    <t>Our Moroccan Argan Oil is completely unrefined and imparts a natural scent.This scent is not an indication of rancidity. Argan Oil that does not have a scent is refined and offers reduced benefits. 
+As of May 1, 2017, this product may contain sources from Argan nuts and seeds. The specifications of the oil remain virtually identical. However, if you have a nut allergy, please note that this product may contain traces of nuts.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% organic cold-pressed rose hip seed oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rose hip seed oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This formulation uses 100% pure Rosehip Seed Oil that is both cold-pressed and organic. Rosehip Seed Oil is rich in linoleic acid, linolenic acid and pro-vitamin A, all of which degrade when the oil extraction process involves heat. While cold-pressed extraction is complex, it preserves all of the quality of this important oil which has been shown to reduce signs of photo-ageing and many other skin conditions. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Rose Hip Seed Oil is completely unrefined and imparts a natural scent partly due to its high omega fatty acid content. This scent is not an indication of rancidity. Rose Hip Seed Oil that does not have a scent is refined and offers reduced benefits. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyaluronic acid 2% + b5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyaluronic Acid (HA) can attract up to 1,000 times its weight in water. The molecular size of HA determines its depth of delivery in the skin. This formulation combines low-, medium- and high-molecular weight HA, as well as a next-generation HA crosspolymer at a combined concentration of 2% for multi-depth hydration in a water-based formula. This system is supported with the addition of Vitamin B5 which also enhances surface hydration. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyaluronic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This formula uses three forms of HA with varying molecular weights, as well as an HA crosspolymer, to offer multi-depth hydration and visible plumping without drawing </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: Hyaluronic Acid is found in the skin naturally but its natural function within the skin is not hydration. Many products have used HA to claim hydration benefits, but HA is too large of a molecule to penetrate the skin and instead sits on the surface and can draw moisture out of the skin making the surface feel soft and hydrated temporarily, while making you feel like you need more HA after the product is rinsed.  water out of the skin solely to improve temporary surface hydration.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural moisturizing factors + ha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Moisturizing Factors (NMF) are elements that keep the outer layer of the skin protected and well-hydrated. NMF are made up of multiple amino acids, fatty acids, triglycerides, urea, ceramides, phospholipids, glycerin, saccharides, sodium PCA, hyaluronic acid and many other compounds that are naturally present in the skin. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural Moisturizing Factors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This formula offers non-greasy hydration that acts as a direct topical supplement of impaired NMF components. It contains 11 amino acids, phospholipids, alpha/beta/gamma fatty acids, triglycerides, sterols and sterol esters, glycerin, ceramide precursors, urea, saccharides, sodium PCA and hyaluronic acid. It offers immediate hydration and lasting results with continued use.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% plant-derived squalane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Squalane is a saturated and stable hydrocarbon that is found naturally in the skin. It has very high emollience, is an exceptional hydrator and can prevent ongoing loss of hydration that impairs dermal suppleness. Squalane is non-comedogenic and is suitable for use on all skin types. It can also be applied to hair to increase heat protection, add shine and reduce breakage potential. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This product uses 100% pure plant-derived Squalane that is ECOCERT approved and is a USDA Certified Bio-based Product.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>squalane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marine hyaluronics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marine Hyaluronics brings together lightweight marine-derived water reservoirs that attract and hold water like hyaluronic acid (HA) but are lighter than HA in texture and feel. The formula contains exopolysaccharides from skin-friendly marine bacteria, Hawaiian red algae, Glycoproteins from Antarctic marine sources, micro-filtered blue-green algae and several health-supporting amino acids. All marine derivatives in Marine Hyaluronics are sourced sustainably. The total concentration of active ingredients in this formula is 23%. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This formula is exceptionally light in texture. If you prefer a more viscous formula, please explore Hyaluronic Acid 2% + B5.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% organic cold-pressed borage seed oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>borage seed oil</t>
+  </si>
+  <si>
+    <t>100% organic virgin sea-buckthorn fruit oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>virgin sea-buckthorn fruit oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This formula combines a comprehensive array of studied technologies to target multiple signs of ageing at once.</t>
+  </si>
+  <si>
+    <t>The technologies are Matrixyl 3,000 peptide complex (with palmitoyl-pentapeptide 35), Matrixyl Synthe'6 peptide complex (with palmitoyl tripeptide-38), Syn-Ake peptide complex (with dipeptide diaminobutyroyl benzylamide diacetate), Relistase peptide complex (with acetylarginyltryptophyl diphenylglycine), Argirelox peptide complex (with acetyl hexapeptide-8, pentapeptide-18), Probiotic complex (with lactococcus lactis lysate), in a base of 11 skin-friendly amino acids and multiple hyaluronic acid complexes. The total concentration of these technologies in the formula by weight is 25.1%.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name of this formula was inspired by some brands referring to their expensive products offering combinations of these technologies as a "buffet", distastefully comparing such products to buffets that offer various kinds of food in one sitting. 
+For a stronger effort against signs of age, our brand Hylamide offers a next-generation formula, SubQ Anti-Age.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(References are made to third-party trademarks in this description. All such trademarks are owned by their respective owners. Neither The Ordinary nor DECIEM is affiliated with these trademarks or their owners.) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha Arbutin reduces the looks of spots and hyper-pigmentation. It's used at a high 2% concentration versus a standard concentration of 1% and supported with a next-generation form of Hyaluronic Acid for enhanced delivery. Alpha Arbutin is much stronger in effect than Arbutin or Beta Arbutin. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha Arbutin is extremely sensitive to degradation in the presence of water if the pH of the formulation is not ideal. The pH of this formula is approximately 4.9 which is shown to be the most suitable pH to minimize degradation of Alpha Arbutin.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply a few drops to face in the AM and PM as part of your skincare regimen. Use sun protection in the AM.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha arbutin 2% + ha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caffeine solution 5% + egcg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha Arbutin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caffeine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Hollowness in the eye contour as a result of structure of sub-dermal tissues like fat and bone can result in visible shadows under the eyes. This shadow, which is not to be mistaken for dark circles, cannot be addressed with topical skincare including this formula. 
+2. Fat deposits under the eye contour can create permanent puffiness in this area. This type of deposit cannot be improved with topical skincare, including this formula. 
+3. Supplied in UV-protective packaging as EGCG is sensitive to light.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrixyl 10% + ha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peptide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Matrixyl is a trademark of Sederma. Neither DECIEM nor The Ordinary is affiliated with Sederma.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This light-textured formula contains an extremely high 5% concentration of caffeine, supplemented with highly-purified Epigallocatechin Gallatyl Glucoside (EGCG) from green tea leaves. Independent studies have shown that topical use of each of caffeine and EGCG can help reduce looks of puffiness and of dark circles in the eye contour. Additional studies have shown that caffeine can also reduce the appearance of cellulite. reduces appearance of eye contour pigmentation and of puffiness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>niacinamide 10% + zinc 1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>niacinamide, zinc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">high-strength vitamin and mineral blemish formula, Niacinamide (Vitamin B3) is indicated to reduce the appearance of skin blemishes and congestion. A high 10% concentration of this vitamin is supported in the formula by zinc salt of pyrrolidone carboxylic acid to balance visible aspects of sebum activity. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes: While Niacinamide and Zinc PCA reduce the look of blemishes and balance visible sebum activity, neither is a treatment for acne. For persistent acne-related conditions, we recommend the use of Benzoyl Peroxide and/or Retinoic Acid. DECIEM doesn't recommend ongoing use of BHA such as Salicylic Acid for persistent blemishes. For temporary improvement in appearance of blemishes, Salicylic Acid would help. This formulation can be used alongside acne treatments if desired for added visible skin benefits.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contraindications: If topical Vitamin C is used as part of skincare, it should be applied at alternate times with this formula (ideally Vitamin C in the PM and this formula in the AM). Otherwise, Niacinamide can affect integrity of pure-form Vitamin C (L-Ascorbic Acid). </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Independent studies suggest Niacinamide is also an effective ingredient for brightening skin tone. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>argireline solution 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arigreline is a trademark owned by Barcelona-based Lipotec. It is a proprietary solution of Acetyl Hexapeptide-8. Controlled studies have shown that Argireline improves the appearance of facial areas prone to developing dynamic folds, including around the eyes and in the forehead area. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arigreline</t>
+  </si>
+  <si>
+    <t>Studies have shown that the water content of formulations does impact the utility level of topical Argireline and specifically that higher water content results in better utility. This formulation is water-based and avoids oils, esters and silicones.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“buffet”, "buffet" + copper peptides 1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt;&gt; reduce signs of inflammation(염증) and sensitivity that is often associated with exfoliation(각질제거), reduce irritation associated with acid use -&gt;&gt;Apply once per day, ideally in the PM. Can be diluted with other treatments to reduce strength until skin develops tolerance. Avoid contact with eyes. If irritation persists, discontinue use and consult a physician. (Sunburn </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부 염증과 예민성, Alert: This product contains an alpha hydroxy acid (AHA) that may increase your skin's sensitivity to the sun and particularly the possibility of sunburn. Use a sunscreen, wear protective clothing, and limit sun exposure while using this product and for a week afterwards.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not leave on for longer than 10 minutes. If persistent irritation occurs, discontinue use and consult a physician. (Sunburn Alert: This product contains an alpha hydroxy acid (AHA) that may increase your skin's sensitivity to the sun and particularly the possibility of sunburn. Use a sunscreen, wear protective clothing, and limit sun exposure while using this product and for a week afterwards.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use ideally in the PM, no more frequently than once per week. Clean face and wait for skin to dry. Do not use on wet skin. Saturate a cotton pad with the formula and sweep evenly across face and neck. Leave on for no more than 10 minutes. Rinse with lukewarm water. Avoid the eye contour and contact with eyes both during application and rinse off. This low-viscosity solution is intended to be used as a masque. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Sunburn Alert: This product contains an alpha hydroxy acid (AHA) that may increase your skin's sensitivity to the sun and particularly the possibility of sunburn. Use a sunscreen, wear protective clothing, and limit sun exposure while using this product and for a week afterwards. Use only as directed. Contact of the product with the skin must be of limited frequency or duration.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This formula should not be used on sensitive, peeling or compromised skin. Please refer to additional sun protection note and other warnings in provided Directions. -&gt;&gt; Use ideally in the PM, no more frequently than once per day. After cleaning, saturate a cotton pad with the formula and sweep across face and neck. Avoid the eye contour and contact with eyes. Do not rinse off. Continue with additional skin treatments as needed. If persistent irritation occurs, discontinue use and consult a physician. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contraindications: This formula should not be used on sensitive, peeling or compromised skin. Please refer to additional sun protection note and other warnings in provided  Directions. (Sunburn Alert: This product contains a beta hydroxy acid (BHA) that may increase your skin's sensitivity to the sun and particularly the possibility of sunburn. Use a sunscreen, wear protective clothing, and limit sun exposure while using this product and for a week afterwards.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use in the AM and PM. Apply a small dot directly on spots for visible improvement or apply a small amount over the face to maintain visible clarity with continued use. Avoid the eye contour and contact with eyes. Do not rinse off. Continue with additional skin treatments as needed. If persistent irritation occurs, discontinue use and consult a physician. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl ascorbic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrixyl is a trademarked peptide composition developed by Sederma in France. This highly-effective composition has been shown to reduce the look of static and dynamic wrinkles. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrixyl (This formula contains two generations of Matrixyl, Matrixyl 3000 and Matrixyl Synthe'6, at a combined concentration of 10% by weight in a specialized Hyaluronic Acid delivery system. The peptide in Matrixyl 3000 is palmitoyl tetrapeptide-7 and the peptide in Matrixyl Synthe'6 is palmitoyl tripeptide-38. )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,7 +908,45 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Apple SD Gothic Neo"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF2E2E30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF404040"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF373A3C"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -339,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,14 +1005,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -634,19 +1322,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -669,244 +1355,2963 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="133" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="209" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="133" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="95" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="361" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="342" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N70"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="8" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="190" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="380" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>47</v>
+      <c r="B3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="323" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.25">
+      <c r="F4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="361" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="18" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="19" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="20" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="21" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="25" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="26" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="28" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="29" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="30" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="31" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="32" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="33" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="34" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="36" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="37" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+        <v>97</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="342" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="25.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="291" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="304" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="342" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="323" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="342" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="266" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="399" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="76" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="8" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="396" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="378" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="342" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="200" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="22" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="G18" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -915,5 +4320,6 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>